--- a/数据整理/stocks/A股/上证主板/603068-博通集成.xlsx
+++ b/数据整理/stocks/A股/上证主板/603068-博通集成.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008635</t>
+          <t>040007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安科技创新混合</t>
+          <t>华安中小盘成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>24.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5881</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>376510</t>
+          <t>040025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根大盘蓝筹股票</t>
+          <t>华安科技动力混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.41</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>040025</t>
+          <t>376510</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安科技动力混合</t>
+          <t>上投摩根大盘蓝筹股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>040007</t>
+          <t>008635</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安中小盘成长混合</t>
+          <t>华安科技创新混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.88</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>90.37</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.43</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007389</t>
+          <t>002654</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根研究驱动股票C</t>
+          <t>上投摩根策略精选灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002654</t>
+          <t>007389</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上投摩根策略精选灵活配置混合</t>
+          <t>上投摩根研究驱动股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>80.15</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -744,15 +834,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.66</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.08</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4905</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603068-博通集成.xlsx
+++ b/数据整理/stocks/A股/上证主板/603068-博通集成.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5778</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2934</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5751</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1757</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603068-博通集成.xlsx
+++ b/数据整理/stocks/A股/上证主板/603068-博通集成.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1372,4 +1373,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8051</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5715</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4847</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603068-博通集成.xlsx
+++ b/数据整理/stocks/A股/上证主板/603068-博通集成.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1657,4 +1658,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603068-博通集成.xlsx
+++ b/数据整理/stocks/A股/上证主板/603068-博通集成.xlsx
@@ -1682,12 +1682,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603068-博通集成.xlsx
+++ b/数据整理/stocks/A股/上证主板/603068-博通集成.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.11</v>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1756,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>013084</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6.3</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="4">
@@ -1729,14 +1862,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>1.49</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="5">
@@ -1745,13 +1878,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.29</v>
       </c>
     </row>
